--- a/IPL/Rajasthan Royals/Mahipal Lomror .xlsx
+++ b/IPL/Rajasthan Royals/Mahipal Lomror .xlsx
@@ -408,16 +408,16 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C2" t="str">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="D2" t="str">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E2" t="str">
         <v>1</v>
       </c>
       <c r="F2" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -428,16 +428,16 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C3" t="str">
+        <v>47</v>
+      </c>
+      <c r="D3" t="str">
+        <v>39</v>
+      </c>
+      <c r="E3" t="str">
         <v>1</v>
       </c>
-      <c r="D3" t="str">
-        <v>2</v>
-      </c>
-      <c r="E3" t="str">
-        <v>0</v>
-      </c>
       <c r="F3" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -448,13 +448,13 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C4" t="str">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D4" t="str">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="str">
         <v>0</v>

--- a/IPL/Rajasthan Royals/Mahipal Lomror .xlsx
+++ b/IPL/Rajasthan Royals/Mahipal Lomror .xlsx
@@ -408,16 +408,16 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C2" t="str">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D2" t="str">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E2" t="str">
         <v>1</v>
       </c>
       <c r="F2" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -428,16 +428,16 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C3" t="str">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="D3" t="str">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="E3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -448,13 +448,13 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C4" t="str">
+        <v>11</v>
+      </c>
+      <c r="D4" t="str">
+        <v>13</v>
+      </c>
+      <c r="E4" t="str">
         <v>1</v>
-      </c>
-      <c r="D4" t="str">
-        <v>2</v>
-      </c>
-      <c r="E4" t="str">
-        <v>0</v>
       </c>
       <c r="F4" t="str">
         <v>0</v>
